--- a/data/trans_orig/ESTADO_CIVIL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ESTADO_CIVIL-Edad-trans_orig.xlsx
@@ -741,97 +741,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -854,97 +854,97 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -967,97 +967,97 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1423,97 +1423,97 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1649,97 +1649,97 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6440,97 +6440,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4766</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2970</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>3789</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6553,97 +6553,97 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4766</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>2970</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>3789</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6666,12 +6666,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -6779,12 +6779,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -6794,12 +6794,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -6892,12 +6892,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6907,12 +6907,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -7122,12 +7122,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -7137,12 +7137,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -7804,12 +7804,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -7819,12 +7819,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -12139,12 +12139,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -12154,12 +12154,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -12252,97 +12252,97 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1198</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>1207</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12400,12 +12400,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -12415,12 +12415,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -12821,97 +12821,97 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1203</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1283</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>1247</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12934,12 +12934,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -12949,12 +12949,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -17838,97 +17838,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>756</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>738</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>750</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -17951,97 +17951,97 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>756</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>738</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>750</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -18064,97 +18064,97 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>756</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>738</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>750</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -18520,97 +18520,97 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>869</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>856</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>865</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -19202,12 +19202,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -19217,12 +19217,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -19884,12 +19884,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -19899,12 +19899,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -22191,12 +22191,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -22206,12 +22206,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">

--- a/data/trans_orig/ESTADO_CIVIL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ESTADO_CIVIL-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en País Vasco</t>
+          <t>Estado civil en País Vasco (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6245,7 +6245,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en Andalucia</t>
+          <t>Estado civil en Andalucia (tasa de respuesta: 99,51%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -11944,7 +11944,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en C.Valenciana</t>
+          <t>Estado civil en C.Valenciana (tasa de respuesta: 99,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -17643,7 +17643,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en Barcelona</t>
+          <t>Estado civil en Barcelona (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
